--- a/biology/Zoologie/Cosmophasis_tristriata/Cosmophasis_tristriata.xlsx
+++ b/biology/Zoologie/Cosmophasis_tristriata/Cosmophasis_tristriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosmophasis tristriata est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosmophasis tristriata est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Palaos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Palaos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Żabka et Waldock en 2012 mesure 3,12 mm sur 2,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Żabka et Waldock en 2012 mesure 3,12 mm sur 2,65 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amycus tristriatus par L. Koch en 1880. Elle est placée en synonymie avec Cosmophasis thalassina par Thorell en 1881[3]. Elle est relevée de synonymie dans le genre Cosmophasis par Żabka et Waldock en 2012[2].
-Cosmophasis muralis[4] a été placée en synonymie par Żabka et Waldock en 2012[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amycus tristriatus par L. Koch en 1880. Elle est placée en synonymie avec Cosmophasis thalassina par Thorell en 1881. Elle est relevée de synonymie dans le genre Cosmophasis par Żabka et Waldock en 2012.
+Cosmophasis muralis a été placée en synonymie par Żabka et Waldock en 2012.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1880 : Die Arachniden Australiens, nach der Natur beschrieben und abgebildet. Nürnberg, vol. 1, p. 1157-1212 (texte intégral).</t>
         </is>
